--- a/_Experiments/_Surgery/_templates/Implant_3chan_customoptrodeRM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_customoptrodeRM1-LM1-EMG_KK01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="460" windowWidth="11750" windowHeight="10180"/>
+    <workbookView xWindow="1990" yWindow="460" windowWidth="11750" windowHeight="8840"/>
   </bookViews>
   <sheets>
     <sheet name="implant" sheetId="2" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Bregma</t>
   </si>
@@ -306,9 +306,6 @@
 _____</t>
   </si>
   <si>
-    <t>Anchor, L-M1, GND, COMM, glue, R-M1 optrode, glue, EMG, cement</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Verify Tilt: </t>
     </r>
@@ -324,9 +321,6 @@
     </r>
   </si>
   <si>
-    <t>GND, COMM, L-M1, anchor screws, switch drill bit: R-M1</t>
-  </si>
-  <si>
     <t>RM1/Ch2</t>
   </si>
   <si>
@@ -349,6 +343,15 @@
   </si>
   <si>
     <t>For use with custom depth electrode plus guide cannula</t>
+  </si>
+  <si>
+    <t>Sex:</t>
+  </si>
+  <si>
+    <t>drill bit #73: GND, COMM, R-M1, OB anchor. drill bit #65: L-M1</t>
+  </si>
+  <si>
+    <t>Anchor, R-M1, GND, COMM, insert L-M1 optrode, solder to PCB, glue, EMG, cement</t>
   </si>
 </sst>
 </file>
@@ -1227,8 +1230,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1265,10 +1268,15 @@
       <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>62</v>
+      <c r="D2" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D6" s="4" t="s">
@@ -1336,7 +1344,7 @@
     </row>
     <row r="11" spans="1:7" ht="31" x14ac:dyDescent="0.25">
       <c r="D11" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>11</v>
@@ -1350,7 +1358,7 @@
     </row>
     <row r="12" spans="1:7" ht="62" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>48</v>
@@ -1367,7 +1375,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>49</v>
@@ -1488,7 +1496,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1510,7 +1518,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="54" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.5">
       <c r="A21" s="4">
         <v>30</v>
       </c>
@@ -1527,7 +1535,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1540,7 +1548,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G22" s="4"/>
     </row>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_customoptrodeRM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_customoptrodeRM1-LM1-EMG_KK01.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$24</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
@@ -361,7 +361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,11 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
       <strike/>
       <sz val="12"/>
       <name val="Arial"/>
@@ -466,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -486,12 +481,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -507,10 +496,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1230,8 +1219,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1274,7 +1263,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1321,52 +1310,52 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="62" x14ac:dyDescent="0.25">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31" x14ac:dyDescent="0.25">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="62" x14ac:dyDescent="0.25">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1374,16 +1363,16 @@
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1391,16 +1380,16 @@
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1518,7 +1507,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>30</v>
       </c>
@@ -1531,28 +1520,28 @@
       <c r="D21" s="4">
         <v>2</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="63.5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" ht="62" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
@@ -1561,10 +1550,10 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G23" s="4"/>
@@ -1589,7 +1578,10 @@
     <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="63" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_customoptrodeRM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_customoptrodeRM1-LM1-EMG_KK01.xlsx
@@ -782,14 +782,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>431800</xdr:rowOff>
+          <xdr:rowOff>533400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1593,14 +1593,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>50800</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>165100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1447800</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>431800</xdr:rowOff>
+                <xdr:rowOff>533400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_customoptrodeRM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_customoptrodeRM1-LM1-EMG_KK01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="460" windowWidth="11750" windowHeight="8840"/>
+    <workbookView xWindow="1990" yWindow="460" windowWidth="11750" windowHeight="10180"/>
   </bookViews>
   <sheets>
     <sheet name="implant" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>Kam, Korey</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="A21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="B22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Bregma</t>
   </si>
@@ -113,40 +113,16 @@
     <t>Lambda</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>GND</t>
   </si>
   <si>
     <t>COMM</t>
   </si>
   <si>
-    <t>TARGETS</t>
-  </si>
-  <si>
     <t>Weight (g)</t>
   </si>
   <si>
     <t>ADJ ratio</t>
-  </si>
-  <si>
-    <t>O2 flow</t>
-  </si>
-  <si>
-    <t>ISO%</t>
-  </si>
-  <si>
-    <t>(Bregma_X)+(1.1*adjust_ratio) = _____</t>
-  </si>
-  <si>
-    <t>X (mm)</t>
-  </si>
-  <si>
-    <t>Y (mm)</t>
-  </si>
-  <si>
-    <t>Z (mm, from skull plane)</t>
   </si>
   <si>
     <t>CCMS Cage#</t>
@@ -163,36 +139,6 @@
     <t>Date of implant:</t>
   </si>
   <si>
-    <t xml:space="preserve">Drill Sequence: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implant Sequence: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin-Out Sequence: </t>
-  </si>
-  <si>
-    <t>EMG</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>(Bregma_Y)+(1.5*adjust_ratio) = _____</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>0.1mm</t>
-  </si>
-  <si>
     <t>X (A-&gt;P) 0.X mm sigfig</t>
   </si>
   <si>
@@ -209,15 +155,6 @@
   </si>
   <si>
     <t>DoB:</t>
-  </si>
-  <si>
-    <t>COMM &amp; R-M1 in block: R-PC, GND, EMG</t>
-  </si>
-  <si>
-    <t>L-M1</t>
-  </si>
-  <si>
-    <t>R-M1</t>
   </si>
   <si>
     <t>(Bregma_Z)-0.0 = _____</t>
@@ -247,18 +184,6 @@
     </r>
   </si>
   <si>
-    <t>Quality control/Acceptance criteria:</t>
-  </si>
-  <si>
-    <t>Criterion</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8425-MC wires to pin heads. EEG screws to pin tail (1.5cm) </t>
-  </si>
-  <si>
     <t>__________</t>
   </si>
   <si>
@@ -286,10 +211,6 @@
  _____</t>
   </si>
   <si>
-    <t>(Bregma_Y)+(2.0*adjust_ratio) =
-_____</t>
-  </si>
-  <si>
     <t>(Bregma_Y)-(2.0*adjust_ratio) =
 _____</t>
   </si>
@@ -306,52 +227,55 @@
 _____</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Verify Tilt: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>±2.0 mm lateral of sagital suture, measure Z</t>
-    </r>
-  </si>
-  <si>
-    <t>RM1/Ch2</t>
-  </si>
-  <si>
-    <t>EMG/Ch3</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LM1/Ch1 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(larger drill bit)</t>
-    </r>
-  </si>
-  <si>
-    <t>For use with custom depth electrode plus guide cannula</t>
+    <t xml:space="preserve">EEG screws to pin tail (1.5cm) </t>
+  </si>
+  <si>
+    <t>EMG/EEG-Ch3&amp;6</t>
+  </si>
+  <si>
+    <t>(Bregma_X)+(1.5*adjust_ratio) = _____</t>
+  </si>
+  <si>
+    <t>(Bregma_Y)+(2.0*adjust_ratio) = _____</t>
   </si>
   <si>
     <t>Sex:</t>
   </si>
   <si>
-    <t>drill bit #73: GND, COMM, R-M1, OB anchor. drill bit #65: L-M1</t>
-  </si>
-  <si>
-    <t>Anchor, R-M1, GND, COMM, insert L-M1 optrode, solder to PCB, glue, EMG, cement</t>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Done?</t>
+  </si>
+  <si>
+    <t>¨</t>
+  </si>
+  <si>
+    <t>O2 flow (L/min)</t>
+  </si>
+  <si>
+    <t>ISO% (of O2)</t>
+  </si>
+  <si>
+    <t>Pinout</t>
+  </si>
+  <si>
+    <t>1st in Loc5</t>
+  </si>
+  <si>
+    <t>0.1/30g mouse</t>
+  </si>
+  <si>
+    <t>0.5/30g mouse</t>
+  </si>
+  <si>
+    <t>RM1/EEG-Ch2</t>
+  </si>
+  <si>
+    <t>LM1/EEG-Ch1</t>
+  </si>
+  <si>
+    <t>2nd in Loc1</t>
   </si>
 </sst>
 </file>
@@ -361,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,30 +330,19 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <strike/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <strike/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="20"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -440,18 +353,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -461,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -475,15 +379,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -493,27 +391,35 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="9">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -523,15 +429,11 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -541,15 +443,11 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -559,123 +457,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -776,59 +558,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1447800</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>533400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8201" name="Object 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s8201"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2082799</xdr:colOff>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>31019</xdr:rowOff>
+      <xdr:rowOff>132619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1426632</xdr:colOff>
+      <xdr:colOff>670982</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>44448</xdr:rowOff>
+      <xdr:rowOff>146048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -852,8 +593,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9948332" y="31019"/>
-          <a:ext cx="1485900" cy="1029429"/>
+          <a:off x="9436099" y="132619"/>
+          <a:ext cx="1509183" cy="1029429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -885,6 +626,47 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>196850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1244600</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8203" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8203"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -899,29 +681,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D6:G14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="D6:G14"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Location" dataDxfId="12"/>
-    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="11"/>
-    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="10"/>
-    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="9"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A15:G24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A15:G24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A19:G26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A19:G26"/>
+  <sortState ref="A20:F27">
+    <sortCondition ref="D6:D14"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="TARGETS" dataDxfId="6"/>
-    <tableColumn id="2" name="X (mm)" dataDxfId="5"/>
-    <tableColumn id="3" name="Y (mm)" dataDxfId="4"/>
-    <tableColumn id="4" name="Z (mm, from skull plane)" dataDxfId="3"/>
-    <tableColumn id="5" name="Quality control/Acceptance criteria:" dataDxfId="2"/>
-    <tableColumn id="6" name="Criterion" dataDxfId="1"/>
-    <tableColumn id="7" name="notes" dataDxfId="0"/>
+    <tableColumn id="1" name="Location" dataDxfId="6"/>
+    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="5"/>
+    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="4"/>
+    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="3"/>
+    <tableColumn id="5" name="Sequence" dataDxfId="2"/>
+    <tableColumn id="6" name="Done?" dataDxfId="1"/>
+    <tableColumn id="7" name="Pinout" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1219,8 +991,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1228,357 +1000,314 @@
     <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="25" style="1"/>
+    <col min="6" max="6" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" ht="62.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="11">
+        <v>3</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="31" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="D25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="11">
+        <v>4</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+      <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="6" t="s">
+      <c r="B26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="11">
+        <v>5</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="62" x14ac:dyDescent="0.25">
-      <c r="D10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31" x14ac:dyDescent="0.25">
-      <c r="D11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="62" x14ac:dyDescent="0.25">
-      <c r="D12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="62" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="62" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>30</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="62" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="B24" s="4">
-        <f>A21/60</f>
-        <v>0.5</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    </row>
     <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="63" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
@@ -1587,33 +1316,32 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8201">
+        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>50800</xdr:colOff>
+                <xdr:colOff>63500</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>165100</xdr:rowOff>
+                <xdr:rowOff>196850</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1447800</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>533400</xdr:rowOff>
+                <xdr:colOff>1244600</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8201"/>
+        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/_Experiments/_Surgery/_templates/Implant_3chan_customoptrodeRM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_customoptrodeRM1-LM1-EMG_KK01.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$26</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
@@ -263,9 +263,6 @@
     <t>1st in Loc5</t>
   </si>
   <si>
-    <t>0.1/30g mouse</t>
-  </si>
-  <si>
     <t>0.5/30g mouse</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t>2nd in Loc1</t>
+  </si>
+  <si>
+    <t>0.1mL/30g mouse</t>
   </si>
 </sst>
 </file>
@@ -991,8 +991,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection sqref="A1:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1208,7 @@
         <v>37</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="62" x14ac:dyDescent="0.45">
@@ -1236,7 +1236,7 @@
     </row>
     <row r="24" spans="1:7" ht="62" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>23</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="25" spans="1:7" ht="31" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>32</v>
@@ -1306,7 +1306,7 @@
     <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
